--- a/NETWORKWINDOWS PROGRAMMING/hw_06/B3230924.xlsx
+++ b/NETWORKWINDOWS PROGRAMMING/hw_06/B3230924.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\class\NETWORKWINDOWS PROGRAMMING\hw_06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D80B56A-F7E4-4280-9129-A9ECBE7A5744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E23ED4-76EB-4A85-BE2E-20E9EF925F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>pr1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,6 +33,13 @@
   <si>
     <t>pr 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">pr3 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靜態方法不能訪問 this 或實例變數，這會導致編譯錯誤</t>
   </si>
 </sst>
 </file>
@@ -190,6 +197,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>515358</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>133927</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="圖片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40F4DA39-1F8B-646E-77CF-97EE03FF85F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="11201400"/>
+          <a:ext cx="7220958" cy="4134427"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>268099</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>67885</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="圖片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE65127D-87BB-3E4D-2091-B5DE729044B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924800" y="11201400"/>
+          <a:ext cx="10021699" cy="8668960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -456,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A57"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="R118" sqref="R118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -474,6 +569,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>2</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
